--- a/邮件群发/模板/发件人模板.xlsx
+++ b/邮件群发/模板/发件人模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="7260" yWindow="1365" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,66 +53,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>skfmti4835</t>
+  </si>
+  <si>
+    <t>daum.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sty3109</t>
+  </si>
+  <si>
+    <t>spp1661712</t>
+  </si>
+  <si>
+    <t>th217</t>
+  </si>
+  <si>
+    <t>dlrpanjd2</t>
+  </si>
+  <si>
+    <t>tjdgks2105</t>
+  </si>
+  <si>
+    <t>serveone123</t>
+  </si>
+  <si>
+    <t>lsjmlb</t>
+  </si>
+  <si>
+    <t>tjdwns5363</t>
+  </si>
+  <si>
+    <t>quf7787</t>
+  </si>
+  <si>
+    <t>qkrcksquf1</t>
+  </si>
+  <si>
+    <t>hje220</t>
+  </si>
+  <si>
+    <t>wlqnddl29802980</t>
+  </si>
+  <si>
+    <t>ljwnh</t>
+  </si>
+  <si>
+    <t>950507aa!</t>
+  </si>
+  <si>
+    <t>88ccsdragon</t>
+  </si>
+  <si>
+    <t>hellkite31</t>
+  </si>
+  <si>
     <t>sms2581</t>
-  </si>
-  <si>
-    <t>skfmti4835</t>
-  </si>
-  <si>
-    <t>daum.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sty3109</t>
-  </si>
-  <si>
-    <t>spp1661712</t>
-  </si>
-  <si>
-    <t>th217</t>
-  </si>
-  <si>
-    <t>dlrpanjd2</t>
-  </si>
-  <si>
-    <t>tjdgks2105</t>
-  </si>
-  <si>
-    <t>serveone123</t>
-  </si>
-  <si>
-    <t>lsjmlb</t>
-  </si>
-  <si>
-    <t>tjdwns5363</t>
-  </si>
-  <si>
-    <t>quf7787</t>
-  </si>
-  <si>
-    <t>qkrcksquf1</t>
-  </si>
-  <si>
-    <t>hje220</t>
-  </si>
-  <si>
-    <t>wlqnddl29802980</t>
-  </si>
-  <si>
-    <t>ljwnh</t>
-  </si>
-  <si>
-    <t>950507aa!</t>
-  </si>
-  <si>
-    <t>88ccsdragon</t>
-  </si>
-  <si>
-    <t>hellkite31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thice</t>
+  </si>
+  <si>
+    <t>yonsei2278</t>
   </si>
 </sst>
 </file>
@@ -456,17 +463,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -495,20 +502,20 @@
         <v>465</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
       <c r="E2" t="str">
         <f>C2&amp;F2&amp;G2</f>
         <v>sms2581@daum.net</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -519,20 +526,20 @@
         <v>465</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3" t="str">
         <f>C3&amp;F2&amp;G2</f>
         <v>sty3109@daum.net</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -543,20 +550,20 @@
         <v>465</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="str">
-        <f t="shared" ref="E4:E10" si="0">C4&amp;F3&amp;G3</f>
+        <f t="shared" ref="E4:E11" si="0">C4&amp;F3&amp;G3</f>
         <v>th217@daum.net</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -567,20 +574,20 @@
         <v>465</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v>tjdgks2105@daum.net</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -591,20 +598,20 @@
         <v>465</v>
       </c>
       <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>lsjmlb@daum.net</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -615,20 +622,20 @@
         <v>465</v>
       </c>
       <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>quf7787@daum.net</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -639,20 +646,20 @@
         <v>465</v>
       </c>
       <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>hje220@daum.net</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -663,20 +670,20 @@
         <v>465</v>
       </c>
       <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>ljwnh@daum.net</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -687,20 +694,20 @@
         <v>465</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>88ccsdragon@daum.net</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -711,260 +718,20 @@
         <v>465</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E11" t="str">
-        <f>C11&amp;F11&amp;G11</f>
-        <v>sms2581@daum.net</v>
+        <f t="shared" si="0"/>
+        <v>thice@daum.net</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>465</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="str">
-        <f>C12&amp;F11&amp;G11</f>
-        <v>sty3109@daum.net</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>465</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" ref="E13:E19" si="1">C13&amp;F12&amp;G12</f>
-        <v>th217@daum.net</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>465</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v>tjdgks2105@daum.net</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>465</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v>lsjmlb@daum.net</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>465</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="1"/>
-        <v>quf7787@daum.net</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>465</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="1"/>
-        <v>hje220@daum.net</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>465</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v>ljwnh@daum.net</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>465</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="1"/>
-        <v>88ccsdragon@daum.net</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20">
-        <v>465</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" ref="E20:E22" si="2">C20&amp;F19&amp;G19</f>
-        <v>hje220@daum.net</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>465</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="2"/>
-        <v>ljwnh@daum.net</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
